--- a/biology/Histoire de la zoologie et de la botanique/Joshua_Brookes/Joshua_Brookes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joshua_Brookes/Joshua_Brookes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joshua Brookes est un médecin et un naturaliste britannique, né le 24 novembre 1761 et mort le 10 janvier 1833.
 Il étudie auprès de William Hunter (1718–1783) à Londres ainsi qu’à Paris. Il fait de très nombreux travaux d’anatomie et développe un important musée consacré à cette discipline grâce à la technique qu’il met au point pour la conservation des préparations.
@@ -513,9 +525,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1828 : An address : delivered at the anniversary meeting of the Zoological Club of the Linnean Society, held at the Society's house, in Soho-Square, November 29, 1828[1] (Richard Taylor, Londres, 30 p.).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1828 : An address : delivered at the anniversary meeting of the Zoological Club of the Linnean Society, held at the Society's house, in Soho-Square, November 29, 1828 (Richard Taylor, Londres, 30 p.).</t>
         </is>
       </c>
     </row>
